--- a/BINF620-R Projects/Final Project/NSCH_2022_Variable labels.xlsx
+++ b/BINF620-R Projects/Final Project/NSCH_2022_Variable labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udwinprod-my.sharepoint.com/personal/assmith_udel_edu/Documents/R Projects/BINF620/BINF620-R Projects/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{9001EE24-37D9-42AB-9079-2AB75D2F548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47324A96-F8B6-4B00-A507-90404006076F}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{9001EE24-37D9-42AB-9079-2AB75D2F548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98B3324C-04C4-4C3C-9F3C-DA5C8BF7B132}"/>
   <bookViews>
-    <workbookView xWindow="2412" yWindow="-17388" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{24CD0A18-0D74-4436-8BB0-CF90BAB9E784}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="4" xr2:uid="{24CD0A18-0D74-4436-8BB0-CF90BAB9E784}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Variables" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="1971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="1972">
   <si>
     <t>FIPSST</t>
   </si>
@@ -6052,6 +6052,9 @@
 3 "1-2 times per month" 
 4 "1-2 times per week" 
 5 "Almost every day"</t>
+  </si>
+  <si>
+    <t>MHealthConcern ~ HHCOUNT + K8Q35 + TalkAbout_22 + RACE + NbhdSupp_22 + NbhdSafe_22 + ACE2more6HH_22 + INQ_INCOME</t>
   </si>
 </sst>
 </file>
@@ -6168,6 +6171,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14051,9 +14058,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C247" sqref="C247"/>
+      <selection pane="bottomLeft" activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17305,10 +17312,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B17E8F-9228-4F03-B401-83ABEE385989}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17379,6 +17386,14 @@
       <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
         <v>1969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1971</v>
       </c>
     </row>
   </sheetData>

--- a/BINF620-R Projects/Final Project/NSCH_2022_Variable labels.xlsx
+++ b/BINF620-R Projects/Final Project/NSCH_2022_Variable labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udwinprod-my.sharepoint.com/personal/assmith_udel_edu/Documents/R Projects/BINF620/BINF620-R Projects/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{9001EE24-37D9-42AB-9079-2AB75D2F548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98B3324C-04C4-4C3C-9F3C-DA5C8BF7B132}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{9001EE24-37D9-42AB-9079-2AB75D2F548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6744339-B37D-46D1-AA95-078E73CCBB50}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="4" xr2:uid="{24CD0A18-0D74-4436-8BB0-CF90BAB9E784}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{24CD0A18-0D74-4436-8BB0-CF90BAB9E784}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Variables" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Idea Board" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$H$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$I$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Variables'!$A$1:$B$934</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Statistical Methods'!$A$1:$B$1</definedName>
   </definedNames>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="1972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="1984">
   <si>
     <t>FIPSST</t>
   </si>
@@ -6055,6 +6055,55 @@
   </si>
   <si>
     <t>MHealthConcern ~ HHCOUNT + K8Q35 + TalkAbout_22 + RACE + NbhdSupp_22 + NbhdSafe_22 + ACE2more6HH_22 + INQ_INCOME</t>
+  </si>
+  <si>
+    <t>1 = Less than 1 hour
+2 = 1 hour
+3 = 2 hours
+4 = 3 hours
+5 = 4 or more hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Excellent or very good 2 Good 3 Fair or poor </t>
+  </si>
+  <si>
+    <t>For Calculation</t>
+  </si>
+  <si>
+    <t>Models Used In</t>
+  </si>
+  <si>
+    <t>Neighborhood / Activities / Support Model | Model1</t>
+  </si>
+  <si>
+    <t>Family / History Model | Model2</t>
+  </si>
+  <si>
+    <t># Adverse Events / Friends Model | Model3</t>
+  </si>
+  <si>
+    <t># Combined Model | Model4</t>
+  </si>
+  <si>
+    <t>"OutcomeVariable ~ HHCOUNT+PHYSACTIV+K8Q35+mentor_22+ShareIdeas_22+
+          ScreenTime_22+ACE4ctCom_22+ AftSchAct_22+NbhdSupp_22+NbhdSafe_22"</t>
+  </si>
+  <si>
+    <t>"OutcomeVariable ~ BORNUSA+ACE12+ACE11+K10Q40_R+
+          age3_22+sex_22+MotherMH_22+FatherMH_22+SC_RACE_R+
+          EventPart_22+mentor_22+ACE2more11_22+ACE6ctHH_22"</t>
+  </si>
+  <si>
+    <t>"OutcomeVariable ~ HHCOUNT+BORNUSA+K8Q35+ACE12+ACE11+
+          age3_22+SC_RACE_R+bully_22+bullied_22+AftSchAct_22+
+          EventPart_22+mentor_22+ShareIdeas_22"</t>
+  </si>
+  <si>
+    <t>"OutcomeVariable ~ HHCOUNT+BORNUSA+K8Q35+ACE12+ACE11+K10Q40_R+PHYSACTIV+
+          age3_22+sex_22+MotherMH_22+FatherMH_22+ScreenTime_22+
+          ACEct11_22+ACE4ctCom_22+SC_RACE_R+bully_22+bullied_22+AftSchAct_22+
+          EventPart_22+mentor_22+ShareIdeas_22+ACE2more11_22+ACE6ctHH_22+
+          NbhdSupp_22+NbhdSafe_22"</t>
   </si>
 </sst>
 </file>
@@ -6125,7 +6174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6139,13 +6188,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14056,27 +14106,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF76284-18C6-40F6-BB15-A93600E21133}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B242" sqref="B242"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.265625" customWidth="1"/>
-    <col min="2" max="2" width="96.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.3984375" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="35.19921875" customWidth="1"/>
+    <col min="4" max="4" width="16.53125" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" customWidth="1"/>
     <col min="6" max="6" width="14.265625" customWidth="1"/>
     <col min="7" max="7" width="12.1328125" customWidth="1"/>
-    <col min="8" max="8" width="73.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" customWidth="1"/>
+    <col min="9" max="9" width="73.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>1860</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -14098,11 +14149,14 @@
         <v>1872</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
@@ -14115,11 +14169,11 @@
         <v>1939</v>
       </c>
       <c r="F2" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B3" t="s">
@@ -14131,9 +14185,12 @@
       <c r="E3" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="F3" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B4" t="s">
@@ -14145,8 +14202,14 @@
       <c r="E4" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -14159,9 +14222,12 @@
       <c r="E5" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+      <c r="F5" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B6" t="s">
@@ -14171,14 +14237,11 @@
         <v>171</v>
       </c>
       <c r="F6" t="s">
-        <v>1870</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B7" t="s">
@@ -14187,9 +14250,12 @@
       <c r="E7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+      <c r="F7" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B8" t="s">
@@ -14199,14 +14265,11 @@
         <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>1870</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
         <v>172</v>
       </c>
       <c r="B9" t="s">
@@ -14215,8 +14278,11 @@
       <c r="E9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -14226,8 +14292,11 @@
       <c r="E10" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -14237,8 +14306,11 @@
       <c r="E11" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -14257,11 +14329,11 @@
       <c r="F12" t="s">
         <v>1868</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>216</v>
       </c>
@@ -14281,7 +14353,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>218</v>
       </c>
@@ -14301,7 +14373,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>242</v>
       </c>
@@ -14311,8 +14383,11 @@
       <c r="E15" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>244</v>
       </c>
@@ -14322,8 +14397,11 @@
       <c r="E16" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>246</v>
       </c>
@@ -14333,8 +14411,11 @@
       <c r="E17" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>248</v>
       </c>
@@ -14344,8 +14425,11 @@
       <c r="E18" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>250</v>
       </c>
@@ -14355,8 +14439,11 @@
       <c r="E19" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>252</v>
       </c>
@@ -14366,8 +14453,11 @@
       <c r="E20" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>254</v>
       </c>
@@ -14377,8 +14467,11 @@
       <c r="E21" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -14388,9 +14481,12 @@
       <c r="E22" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="F22" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
         <v>388</v>
       </c>
       <c r="B23" t="s">
@@ -14399,9 +14495,15 @@
       <c r="E23" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="F23" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
         <v>390</v>
       </c>
       <c r="B24" t="s">
@@ -14411,10 +14513,13 @@
         <v>1945</v>
       </c>
       <c r="F24" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>1870</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>392</v>
       </c>
@@ -14424,8 +14529,11 @@
       <c r="E25" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>394</v>
       </c>
@@ -14435,8 +14543,11 @@
       <c r="E26" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>396</v>
       </c>
@@ -14446,8 +14557,11 @@
       <c r="E27" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>398</v>
       </c>
@@ -14461,7 +14575,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>400</v>
       </c>
@@ -14471,8 +14585,11 @@
       <c r="E29" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>402</v>
       </c>
@@ -14482,8 +14599,11 @@
       <c r="E30" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>404</v>
       </c>
@@ -14493,8 +14613,11 @@
       <c r="E31" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>406</v>
       </c>
@@ -14503,6 +14626,9 @@
       </c>
       <c r="E32" t="s">
         <v>1945</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1868</v>
       </c>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -14515,6 +14641,9 @@
       <c r="E33" t="s">
         <v>1946</v>
       </c>
+      <c r="F33" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
@@ -14540,6 +14669,9 @@
       <c r="E35" t="s">
         <v>1946</v>
       </c>
+      <c r="F35" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
@@ -14551,6 +14683,9 @@
       <c r="E36" t="s">
         <v>1946</v>
       </c>
+      <c r="F36" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
@@ -14562,6 +14697,9 @@
       <c r="E37" t="s">
         <v>1946</v>
       </c>
+      <c r="F37" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
@@ -14573,6 +14711,9 @@
       <c r="E38" t="s">
         <v>1946</v>
       </c>
+      <c r="F38" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
@@ -14585,7 +14726,7 @@
         <v>1946</v>
       </c>
       <c r="F39" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -14599,11 +14740,11 @@
         <v>1946</v>
       </c>
       <c r="F40" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="A41" s="9" t="s">
         <v>464</v>
       </c>
       <c r="B41" t="s">
@@ -14612,9 +14753,15 @@
       <c r="E41" t="s">
         <v>1946</v>
       </c>
+      <c r="F41" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1874</v>
+      </c>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="A42" s="9" t="s">
         <v>466</v>
       </c>
       <c r="B42" t="s">
@@ -14623,9 +14770,15 @@
       <c r="E42" t="s">
         <v>1946</v>
       </c>
+      <c r="F42" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1874</v>
+      </c>
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="9" t="s">
         <v>660</v>
       </c>
       <c r="B43" t="s">
@@ -14633,6 +14786,9 @@
       </c>
       <c r="E43" t="s">
         <v>1937</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1869</v>
       </c>
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -14645,6 +14801,9 @@
       <c r="E44" t="s">
         <v>1933</v>
       </c>
+      <c r="F44" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
@@ -14656,9 +14815,12 @@
       <c r="E45" t="s">
         <v>1933</v>
       </c>
+      <c r="F45" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="57" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="9" t="s">
         <v>682</v>
       </c>
       <c r="B46" t="s">
@@ -14690,6 +14852,9 @@
       <c r="E47" t="s">
         <v>1939</v>
       </c>
+      <c r="F47" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
@@ -14701,8 +14866,11 @@
       <c r="E48" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F48" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>687</v>
       </c>
@@ -14715,11 +14883,8 @@
       <c r="F49" t="s">
         <v>1869</v>
       </c>
-      <c r="G49" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>689</v>
       </c>
@@ -14729,22 +14894,28 @@
       <c r="E50" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="F50" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="9" t="s">
         <v>691</v>
       </c>
       <c r="B51" t="s">
         <v>692</v>
       </c>
+      <c r="C51" s="4" t="s">
+        <v>1972</v>
+      </c>
       <c r="E51" t="s">
         <v>1934</v>
       </c>
       <c r="F51" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>789</v>
       </c>
@@ -14757,11 +14928,8 @@
       <c r="F52" t="s">
         <v>1869</v>
       </c>
-      <c r="G52" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>817</v>
       </c>
@@ -14771,8 +14939,11 @@
       <c r="E53" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F53" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>949</v>
       </c>
@@ -14782,8 +14953,11 @@
       <c r="E54" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F54" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>951</v>
       </c>
@@ -14793,8 +14967,11 @@
       <c r="E55" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F55" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>953</v>
       </c>
@@ -14804,8 +14981,11 @@
       <c r="E56" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F56" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>955</v>
       </c>
@@ -14815,8 +14995,11 @@
       <c r="E57" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F57" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>957</v>
       </c>
@@ -14826,8 +15009,11 @@
       <c r="E58" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F58" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>959</v>
       </c>
@@ -14837,8 +15023,11 @@
       <c r="E59" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F59" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>961</v>
       </c>
@@ -14848,8 +15037,11 @@
       <c r="E60" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F60" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>963</v>
       </c>
@@ -14859,8 +15051,11 @@
       <c r="E61" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F61" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>965</v>
       </c>
@@ -14874,7 +15069,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>967</v>
       </c>
@@ -14884,8 +15079,11 @@
       <c r="E63" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F63" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>969</v>
       </c>
@@ -14895,8 +15093,11 @@
       <c r="E64" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F64" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>971</v>
       </c>
@@ -14906,8 +15107,11 @@
       <c r="E65" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F65" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>973</v>
       </c>
@@ -14917,8 +15121,11 @@
       <c r="E66" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F66" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>975</v>
       </c>
@@ -14928,8 +15135,11 @@
       <c r="E67" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F67" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>977</v>
       </c>
@@ -14939,9 +15149,12 @@
       <c r="E68" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="F68" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="9" t="s">
         <v>979</v>
       </c>
       <c r="B69" t="s">
@@ -14957,10 +15170,13 @@
         <v>1939</v>
       </c>
       <c r="F69" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>1870</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>981</v>
       </c>
@@ -14974,8 +15190,8 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+    <row r="71" spans="1:7" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="9" t="s">
         <v>983</v>
       </c>
       <c r="B71" t="s">
@@ -14991,10 +15207,13 @@
         <v>1939</v>
       </c>
       <c r="F71" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>1870</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>985</v>
       </c>
@@ -15007,8 +15226,11 @@
       <c r="E72" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F72" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>987</v>
       </c>
@@ -15021,8 +15243,11 @@
       <c r="E73" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F73" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>988</v>
       </c>
@@ -15032,8 +15257,11 @@
       <c r="E74" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F74" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>990</v>
       </c>
@@ -15043,8 +15271,11 @@
       <c r="E75" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F75" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>992</v>
       </c>
@@ -15054,8 +15285,11 @@
       <c r="E76" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F76" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>994</v>
       </c>
@@ -15065,8 +15299,11 @@
       <c r="E77" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F77" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>996</v>
       </c>
@@ -15076,8 +15313,11 @@
       <c r="E78" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F78" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>998</v>
       </c>
@@ -15087,8 +15327,11 @@
       <c r="E79" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F79" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>1000</v>
       </c>
@@ -15097,6 +15340,9 @@
       </c>
       <c r="E80" t="s">
         <v>1947</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1868</v>
       </c>
     </row>
     <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -15109,6 +15355,9 @@
       <c r="E81" t="s">
         <v>1935</v>
       </c>
+      <c r="F81" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
@@ -15120,6 +15369,9 @@
       <c r="E82" t="s">
         <v>1939</v>
       </c>
+      <c r="F82" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
@@ -15134,9 +15386,6 @@
       <c r="F83" t="s">
         <v>1869</v>
       </c>
-      <c r="G83" t="s">
-        <v>1873</v>
-      </c>
     </row>
     <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
@@ -15151,9 +15400,6 @@
       <c r="F84" t="s">
         <v>1869</v>
       </c>
-      <c r="G84" t="s">
-        <v>1873</v>
-      </c>
     </row>
     <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
@@ -15184,25 +15430,43 @@
       </c>
     </row>
     <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="A87" s="9" t="s">
         <v>1629</v>
       </c>
       <c r="B87" t="s">
         <v>1630</v>
       </c>
+      <c r="C87" t="s">
+        <v>1973</v>
+      </c>
       <c r="E87" t="s">
         <v>1935</v>
       </c>
+      <c r="F87" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1874</v>
+      </c>
     </row>
     <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+      <c r="A88" s="9" t="s">
         <v>1631</v>
       </c>
       <c r="B88" t="s">
         <v>1632</v>
       </c>
+      <c r="C88" t="s">
+        <v>1973</v>
+      </c>
       <c r="E88" t="s">
         <v>1935</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1874</v>
       </c>
     </row>
     <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -15215,6 +15479,9 @@
       <c r="E89" t="s">
         <v>1935</v>
       </c>
+      <c r="F89" t="s">
+        <v>1869</v>
+      </c>
     </row>
     <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
@@ -15226,9 +15493,12 @@
       <c r="E90" t="s">
         <v>1935</v>
       </c>
+      <c r="F90" t="s">
+        <v>1869</v>
+      </c>
     </row>
     <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+      <c r="A91" s="9" t="s">
         <v>1655</v>
       </c>
       <c r="B91" t="s">
@@ -15236,6 +15506,12 @@
       </c>
       <c r="E91" t="s">
         <v>1934</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1874</v>
       </c>
     </row>
     <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -15248,6 +15524,9 @@
       <c r="E92" t="s">
         <v>1946</v>
       </c>
+      <c r="F92" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
@@ -15259,6 +15538,9 @@
       <c r="E93" t="s">
         <v>1946</v>
       </c>
+      <c r="F93" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
@@ -15270,6 +15552,9 @@
       <c r="E94" t="s">
         <v>1946</v>
       </c>
+      <c r="F94" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
@@ -15281,6 +15566,9 @@
       <c r="E95" t="s">
         <v>1946</v>
       </c>
+      <c r="F95" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
@@ -15292,8 +15580,11 @@
       <c r="E96" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F96" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>1684</v>
       </c>
@@ -15303,8 +15594,11 @@
       <c r="E97" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F97" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>1686</v>
       </c>
@@ -15314,8 +15608,11 @@
       <c r="E98" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F98" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>1688</v>
       </c>
@@ -15325,8 +15622,11 @@
       <c r="E99" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F99" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>1690</v>
       </c>
@@ -15336,8 +15636,11 @@
       <c r="E100" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F100" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>1692</v>
       </c>
@@ -15347,9 +15650,12 @@
       <c r="E101" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="7" t="s">
+      <c r="F101" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="9" t="s">
         <v>1694</v>
       </c>
       <c r="B102" t="s">
@@ -15358,8 +15664,14 @@
       <c r="E102" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F102" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>1776</v>
       </c>
@@ -15369,9 +15681,12 @@
       <c r="E103" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="7" t="s">
+      <c r="F103" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A104" s="9" t="s">
         <v>494</v>
       </c>
       <c r="B104" t="s">
@@ -15383,9 +15698,12 @@
       <c r="E104" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="7" t="s">
+      <c r="F104" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A105" s="9" t="s">
         <v>496</v>
       </c>
       <c r="B105" t="s">
@@ -15398,10 +15716,10 @@
         <v>171</v>
       </c>
       <c r="F105" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>588</v>
       </c>
@@ -15411,8 +15729,11 @@
       <c r="E106" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F106" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>590</v>
       </c>
@@ -15422,8 +15743,11 @@
       <c r="E107" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F107" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>592</v>
       </c>
@@ -15433,8 +15757,11 @@
       <c r="E108" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F108" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>594</v>
       </c>
@@ -15444,8 +15771,11 @@
       <c r="E109" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F109" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>596</v>
       </c>
@@ -15455,8 +15785,11 @@
       <c r="E110" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F110" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>598</v>
       </c>
@@ -15466,8 +15799,11 @@
       <c r="E111" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F111" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>600</v>
       </c>
@@ -15478,10 +15814,10 @@
         <v>1941</v>
       </c>
       <c r="F112" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>602</v>
       </c>
@@ -15491,8 +15827,11 @@
       <c r="E113" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F113" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>604</v>
       </c>
@@ -15503,10 +15842,10 @@
         <v>1941</v>
       </c>
       <c r="F114" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>606</v>
       </c>
@@ -15519,11 +15858,8 @@
       <c r="F115" t="s">
         <v>1869</v>
       </c>
-      <c r="G115" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>608</v>
       </c>
@@ -15533,8 +15869,11 @@
       <c r="E116" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F116" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>622</v>
       </c>
@@ -15544,8 +15883,11 @@
       <c r="E117" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F117" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>628</v>
       </c>
@@ -15555,8 +15897,11 @@
       <c r="E118" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F118" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>634</v>
       </c>
@@ -15566,8 +15911,11 @@
       <c r="E119" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F119" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>911</v>
       </c>
@@ -15577,8 +15925,11 @@
       <c r="E120" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F120" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>913</v>
       </c>
@@ -15588,8 +15939,11 @@
       <c r="E121" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F121" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>915</v>
       </c>
@@ -15599,8 +15953,11 @@
       <c r="E122" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F122" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>1068</v>
       </c>
@@ -15610,8 +15967,11 @@
       <c r="E123" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F123" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>1070</v>
       </c>
@@ -15625,8 +15985,8 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="9" t="s">
         <v>1166</v>
       </c>
       <c r="B125" t="s">
@@ -15636,14 +15996,11 @@
         <v>171</v>
       </c>
       <c r="F125" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G125" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="9" t="s">
         <v>1168</v>
       </c>
       <c r="B126" t="s">
@@ -15653,13 +16010,10 @@
         <v>171</v>
       </c>
       <c r="F126" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G126" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>1170</v>
       </c>
@@ -15673,8 +16027,8 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="9" t="s">
         <v>1284</v>
       </c>
       <c r="B128" t="s">
@@ -15683,8 +16037,11 @@
       <c r="E128" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F128" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>1505</v>
       </c>
@@ -15694,8 +16051,11 @@
       <c r="E129" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F129" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>1507</v>
       </c>
@@ -15705,8 +16065,11 @@
       <c r="E130" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F130" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>1511</v>
       </c>
@@ -15716,8 +16079,11 @@
       <c r="E131" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F131" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>1513</v>
       </c>
@@ -15727,9 +16093,12 @@
       <c r="E132" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
+      <c r="F132" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="9" t="s">
         <v>1702</v>
       </c>
       <c r="B133" t="s">
@@ -15738,8 +16107,14 @@
       <c r="E133" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F133" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>1716</v>
       </c>
@@ -15749,8 +16124,11 @@
       <c r="E134" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F134" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>1718</v>
       </c>
@@ -15760,8 +16138,11 @@
       <c r="E135" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F135" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>1720</v>
       </c>
@@ -15771,8 +16152,11 @@
       <c r="E136" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F136" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>1722</v>
       </c>
@@ -15782,8 +16166,11 @@
       <c r="E137" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F137" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>1724</v>
       </c>
@@ -15793,8 +16180,11 @@
       <c r="E138" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F138" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>1726</v>
       </c>
@@ -15804,8 +16194,11 @@
       <c r="E139" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F139" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>1728</v>
       </c>
@@ -15815,8 +16208,11 @@
       <c r="E140" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F140" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -15826,8 +16222,11 @@
       <c r="E141" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F141" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>92</v>
       </c>
@@ -15837,8 +16236,11 @@
       <c r="E142" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F142" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>378</v>
       </c>
@@ -15848,8 +16250,11 @@
       <c r="E143" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F143" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>380</v>
       </c>
@@ -15859,8 +16264,11 @@
       <c r="E144" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F144" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>382</v>
       </c>
@@ -15870,8 +16278,11 @@
       <c r="E145" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F145" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>384</v>
       </c>
@@ -15881,8 +16292,11 @@
       <c r="E146" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F146" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>386</v>
       </c>
@@ -15892,8 +16306,11 @@
       <c r="E147" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F147" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>446</v>
       </c>
@@ -15903,8 +16320,11 @@
       <c r="E148" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F148" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>514</v>
       </c>
@@ -15914,8 +16334,11 @@
       <c r="E149" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F149" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>526</v>
       </c>
@@ -15925,8 +16348,11 @@
       <c r="E150" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F150" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>528</v>
       </c>
@@ -15936,8 +16362,11 @@
       <c r="E151" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F151" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>530</v>
       </c>
@@ -15947,8 +16376,11 @@
       <c r="E152" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F152" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>532</v>
       </c>
@@ -15958,8 +16390,11 @@
       <c r="E153" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F153" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>534</v>
       </c>
@@ -15969,8 +16404,11 @@
       <c r="E154" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F154" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>536</v>
       </c>
@@ -15980,8 +16418,11 @@
       <c r="E155" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F155" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>538</v>
       </c>
@@ -15991,8 +16432,11 @@
       <c r="E156" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F156" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>540</v>
       </c>
@@ -16002,8 +16446,11 @@
       <c r="E157" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F157" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>542</v>
       </c>
@@ -16013,8 +16460,11 @@
       <c r="E158" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F158" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>544</v>
       </c>
@@ -16024,8 +16474,11 @@
       <c r="E159" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F159" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>546</v>
       </c>
@@ -16035,8 +16488,11 @@
       <c r="E160" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F160" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>548</v>
       </c>
@@ -16046,8 +16502,11 @@
       <c r="E161" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F161" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>550</v>
       </c>
@@ -16057,8 +16516,11 @@
       <c r="E162" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F162" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>552</v>
       </c>
@@ -16068,8 +16530,11 @@
       <c r="E163" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F163" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>554</v>
       </c>
@@ -16079,8 +16544,11 @@
       <c r="E164" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F164" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>556</v>
       </c>
@@ -16090,8 +16558,11 @@
       <c r="E165" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F165" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>558</v>
       </c>
@@ -16101,8 +16572,11 @@
       <c r="E166" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F166" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>560</v>
       </c>
@@ -16112,8 +16586,11 @@
       <c r="E167" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F167" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>648</v>
       </c>
@@ -16123,8 +16600,11 @@
       <c r="E168" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F168" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>650</v>
       </c>
@@ -16134,8 +16614,11 @@
       <c r="E169" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F169" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>652</v>
       </c>
@@ -16145,8 +16628,11 @@
       <c r="E170" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F170" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>654</v>
       </c>
@@ -16156,8 +16642,11 @@
       <c r="E171" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F171" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>656</v>
       </c>
@@ -16167,8 +16656,11 @@
       <c r="E172" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F172" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>658</v>
       </c>
@@ -16178,8 +16670,11 @@
       <c r="E173" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F173" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>662</v>
       </c>
@@ -16189,8 +16684,11 @@
       <c r="E174" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F174" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>664</v>
       </c>
@@ -16200,8 +16698,11 @@
       <c r="E175" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F175" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>666</v>
       </c>
@@ -16211,8 +16712,11 @@
       <c r="E176" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F176" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>668</v>
       </c>
@@ -16222,8 +16726,11 @@
       <c r="E177" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F177" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>670</v>
       </c>
@@ -16233,8 +16740,11 @@
       <c r="E178" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F178" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>697</v>
       </c>
@@ -16244,8 +16754,11 @@
       <c r="E179" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F179" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>699</v>
       </c>
@@ -16255,8 +16768,11 @@
       <c r="E180" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F180" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>731</v>
       </c>
@@ -16266,8 +16782,11 @@
       <c r="E181" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F181" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>733</v>
       </c>
@@ -16277,8 +16796,11 @@
       <c r="E182" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F182" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>757</v>
       </c>
@@ -16288,8 +16810,11 @@
       <c r="E183" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F183" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>763</v>
       </c>
@@ -16299,8 +16824,11 @@
       <c r="E184" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F184" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>771</v>
       </c>
@@ -16310,9 +16838,12 @@
       <c r="E185" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
+      <c r="F185" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A186" s="9" t="s">
         <v>811</v>
       </c>
       <c r="B186" t="s">
@@ -16321,8 +16852,14 @@
       <c r="E186" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F186" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>813</v>
       </c>
@@ -16332,8 +16869,11 @@
       <c r="E187" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F187" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>865</v>
       </c>
@@ -16343,8 +16883,11 @@
       <c r="E188" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F188" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>1062</v>
       </c>
@@ -16354,8 +16897,11 @@
       <c r="E189" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F189" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>1064</v>
       </c>
@@ -16365,8 +16911,11 @@
       <c r="E190" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F190" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>1066</v>
       </c>
@@ -16376,8 +16925,11 @@
       <c r="E191" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F191" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>1072</v>
       </c>
@@ -16387,9 +16939,12 @@
       <c r="E192" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
+      <c r="F192" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A193" s="9" t="s">
         <v>1232</v>
       </c>
       <c r="B193" t="s">
@@ -16401,9 +16956,15 @@
       <c r="E193" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A194" t="s">
+      <c r="F193" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A194" s="9" t="s">
         <v>1234</v>
       </c>
       <c r="B194" t="s">
@@ -16414,6 +16975,12 @@
       </c>
       <c r="E194" t="s">
         <v>1936</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1874</v>
       </c>
     </row>
     <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -16426,6 +16993,9 @@
       <c r="E195" t="s">
         <v>1941</v>
       </c>
+      <c r="F195" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
@@ -16437,8 +17007,11 @@
       <c r="E196" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F196" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>1258</v>
       </c>
@@ -16448,8 +17021,11 @@
       <c r="E197" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F197" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>1260</v>
       </c>
@@ -16458,6 +17034,9 @@
       </c>
       <c r="E198" t="s">
         <v>1936</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1868</v>
       </c>
     </row>
     <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -16470,6 +17049,9 @@
       <c r="E199" t="s">
         <v>1938</v>
       </c>
+      <c r="F199" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
@@ -16481,6 +17063,9 @@
       <c r="E200" t="s">
         <v>1933</v>
       </c>
+      <c r="F200" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
@@ -16492,6 +17077,9 @@
       <c r="E201" t="s">
         <v>1934</v>
       </c>
+      <c r="F201" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
@@ -16503,6 +17091,9 @@
       <c r="E202" t="s">
         <v>1934</v>
       </c>
+      <c r="F202" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
@@ -16514,9 +17105,12 @@
       <c r="E203" t="s">
         <v>1934</v>
       </c>
+      <c r="F203" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A204" s="7" t="s">
+      <c r="A204" s="9" t="s">
         <v>1525</v>
       </c>
       <c r="B204" t="s">
@@ -16533,7 +17127,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A205" t="s">
+      <c r="A205" s="9" t="s">
         <v>1527</v>
       </c>
       <c r="B205" t="s">
@@ -16541,6 +17135,12 @@
       </c>
       <c r="E205" t="s">
         <v>1934</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1874</v>
       </c>
     </row>
     <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
@@ -16553,6 +17153,9 @@
       <c r="E206" t="s">
         <v>1934</v>
       </c>
+      <c r="F206" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
@@ -16564,9 +17167,12 @@
       <c r="E207" t="s">
         <v>1934</v>
       </c>
+      <c r="F207" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A208" t="s">
+      <c r="A208" s="9" t="s">
         <v>1533</v>
       </c>
       <c r="B208" t="s">
@@ -16575,8 +17181,14 @@
       <c r="E208" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F208" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>1645</v>
       </c>
@@ -16586,9 +17198,12 @@
       <c r="E209" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A210" t="s">
+      <c r="F209" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A210" s="9" t="s">
         <v>1647</v>
       </c>
       <c r="B210" t="s">
@@ -16603,8 +17218,14 @@
       <c r="E210" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F210" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>1657</v>
       </c>
@@ -16614,8 +17235,11 @@
       <c r="E211" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F211" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>1659</v>
       </c>
@@ -16625,8 +17249,11 @@
       <c r="E212" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F212" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>1661</v>
       </c>
@@ -16636,8 +17263,11 @@
       <c r="E213" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F213" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>1663</v>
       </c>
@@ -16647,9 +17277,12 @@
       <c r="E214" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A215" t="s">
+      <c r="F214" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A215" s="9" t="s">
         <v>1696</v>
       </c>
       <c r="B215" t="s">
@@ -16658,9 +17291,15 @@
       <c r="E215" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A216" t="s">
+      <c r="F215" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A216" s="9" t="s">
         <v>1698</v>
       </c>
       <c r="B216" t="s">
@@ -16669,9 +17308,15 @@
       <c r="E216" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A217" s="7" t="s">
+      <c r="F216" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A217" s="9" t="s">
         <v>1700</v>
       </c>
       <c r="B217" t="s">
@@ -16680,9 +17325,12 @@
       <c r="E217" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A218" s="7" t="s">
+      <c r="F217" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A218" s="9" t="s">
         <v>1704</v>
       </c>
       <c r="B218" t="s">
@@ -16691,8 +17339,11 @@
       <c r="E218" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F218" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>1714</v>
       </c>
@@ -16702,9 +17353,12 @@
       <c r="E219" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A220" s="7" t="s">
+      <c r="F219" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A220" s="9" t="s">
         <v>1780</v>
       </c>
       <c r="B220" t="s">
@@ -16713,9 +17367,15 @@
       <c r="E220" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A221" s="7" t="s">
+      <c r="F220" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A221" s="9" t="s">
         <v>1782</v>
       </c>
       <c r="B221" t="s">
@@ -16724,8 +17384,14 @@
       <c r="E221" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F221" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G221" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>1784</v>
       </c>
@@ -16735,8 +17401,11 @@
       <c r="E222" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F222" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>1786</v>
       </c>
@@ -16746,8 +17415,11 @@
       <c r="E223" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F223" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>1788</v>
       </c>
@@ -16757,8 +17429,11 @@
       <c r="E224" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F224" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>1790</v>
       </c>
@@ -16768,8 +17443,11 @@
       <c r="E225" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F225" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>1792</v>
       </c>
@@ -16779,8 +17457,11 @@
       <c r="E226" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F226" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>1794</v>
       </c>
@@ -16790,8 +17471,11 @@
       <c r="E227" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F227" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>1796</v>
       </c>
@@ -16801,8 +17485,11 @@
       <c r="E228" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F228" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>1798</v>
       </c>
@@ -16812,8 +17499,11 @@
       <c r="E229" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F229" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>1800</v>
       </c>
@@ -16823,8 +17513,11 @@
       <c r="E230" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F230" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>1802</v>
       </c>
@@ -16834,13 +17527,21 @@
       <c r="E231" t="s">
         <v>1937</v>
       </c>
+      <c r="F231" t="s">
+        <v>1868</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H231" xr:uid="{DDF76284-18C6-40F6-BB15-A93600E21133}">
-    <filterColumn colId="4">
+  <autoFilter ref="A1:I231" xr:uid="{DDF76284-18C6-40F6-BB15-A93600E21133}">
+    <filterColumn colId="5">
       <filters>
-        <filter val="Socail - Friends"/>
+        <filter val="For Calculation"/>
+        <filter val="For model"/>
+        <filter val="For plot"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16856,7 +17557,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{215134CD-200E-4679-BC43-8B986D56DED7}">
           <x14:formula1>
-            <xm:f>Types!$B$2:$B$5</xm:f>
+            <xm:f>Types!$B$2:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
@@ -16883,7 +17584,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16992,6 +17693,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>1974</v>
+      </c>
       <c r="D6" t="s">
         <v>1953</v>
       </c>
@@ -17312,18 +18016,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B17E8F-9228-4F03-B401-83ABEE385989}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.265625" customWidth="1"/>
+    <col min="1" max="1" width="43.3984375" customWidth="1"/>
     <col min="2" max="2" width="53.73046875" customWidth="1"/>
     <col min="3" max="3" width="27.265625" customWidth="1"/>
-    <col min="4" max="4" width="29.1328125" customWidth="1"/>
+    <col min="4" max="4" width="37.1328125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="79.86328125" customWidth="1"/>
   </cols>
@@ -17371,7 +18075,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>1965</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -17380,7 +18084,7 @@
       <c r="C4" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>1968</v>
       </c>
       <c r="E4" s="5"/>
@@ -17394,6 +18098,50 @@
       </c>
       <c r="D5" s="4" t="s">
         <v>1971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1983</v>
       </c>
     </row>
   </sheetData>

--- a/BINF620-R Projects/Final Project/NSCH_2022_Variable labels.xlsx
+++ b/BINF620-R Projects/Final Project/NSCH_2022_Variable labels.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udwinprod-my.sharepoint.com/personal/assmith_udel_edu/Documents/R Projects/BINF620/BINF620-R Projects/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{9001EE24-37D9-42AB-9079-2AB75D2F548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6744339-B37D-46D1-AA95-078E73CCBB50}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{9001EE24-37D9-42AB-9079-2AB75D2F548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B728686A-63A3-4FBD-B51C-1F1EBBB7A3F1}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{24CD0A18-0D74-4436-8BB0-CF90BAB9E784}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{24CD0A18-0D74-4436-8BB0-CF90BAB9E784}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Dictionary" sheetId="2" r:id="rId2"/>
-    <sheet name="Types" sheetId="3" r:id="rId3"/>
-    <sheet name="Statistical Methods" sheetId="6" r:id="rId4"/>
-    <sheet name="Models" sheetId="4" r:id="rId5"/>
-    <sheet name="Plots" sheetId="5" r:id="rId6"/>
-    <sheet name="Idea Board" sheetId="7" r:id="rId7"/>
+    <sheet name="Resources" sheetId="8" r:id="rId3"/>
+    <sheet name="Types" sheetId="3" r:id="rId4"/>
+    <sheet name="Statistical Methods" sheetId="6" r:id="rId5"/>
+    <sheet name="Models" sheetId="4" r:id="rId6"/>
+    <sheet name="Plots" sheetId="5" r:id="rId7"/>
+    <sheet name="Idea Board" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$I$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Variables'!$A$1:$B$934</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Statistical Methods'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statistical Methods'!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="1990">
   <si>
     <t>FIPSST</t>
   </si>
@@ -6104,6 +6105,24 @@
           ACEct11_22+ACE4ctCom_22+SC_RACE_R+bully_22+bullied_22+AftSchAct_22+
           EventPart_22+mentor_22+ShareIdeas_22+ACE2more11_22+ACE6ctHH_22+
           NbhdSupp_22+NbhdSafe_22"</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/children-mental-health/data-research/index.html</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>Data and Statistics on Children's Mental Health</t>
   </si>
 </sst>
 </file>
@@ -6174,7 +6193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6194,23 +6213,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6608,11 +6616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A1BD0F-AB80-42BF-ADD7-E5971A4A9B80}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:B934"/>
   <sheetViews>
-    <sheetView topLeftCell="A850" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B943" sqref="B943"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6629,7 +6636,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6637,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6645,7 +6652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6653,7 +6660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6669,7 +6676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6677,7 +6684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6693,7 +6700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6701,7 +6708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -6709,7 +6716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6717,7 +6724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -6725,7 +6732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -6733,7 +6740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -6741,7 +6748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -6749,7 +6756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -6757,7 +6764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -6765,7 +6772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -6773,7 +6780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -6781,7 +6788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -6789,7 +6796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -6797,7 +6804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -6805,7 +6812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -6813,7 +6820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -6821,7 +6828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -6829,7 +6836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -6837,7 +6844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -6845,7 +6852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -6853,7 +6860,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -6861,7 +6868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -6869,7 +6876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6877,7 +6884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -6885,7 +6892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -6893,7 +6900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -6901,7 +6908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -6909,7 +6916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -6917,7 +6924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -6925,7 +6932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -6933,7 +6940,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -6941,7 +6948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -6949,7 +6956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -6957,7 +6964,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -6965,7 +6972,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -6973,7 +6980,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -6981,7 +6988,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -6989,7 +6996,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -7013,7 +7020,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -7021,7 +7028,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -7029,7 +7036,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -7037,7 +7044,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -7061,7 +7068,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -7069,7 +7076,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -7077,7 +7084,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -7085,7 +7092,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -7093,7 +7100,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -7101,7 +7108,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -7109,7 +7116,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -7117,7 +7124,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -7125,7 +7132,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -7133,7 +7140,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -7141,7 +7148,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -7149,7 +7156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -7157,7 +7164,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -7165,7 +7172,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -7173,7 +7180,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -7181,7 +7188,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -7189,7 +7196,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -7205,7 +7212,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -7213,7 +7220,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -7229,7 +7236,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -7245,7 +7252,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -7253,7 +7260,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -7261,7 +7268,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -7269,7 +7276,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -7333,7 +7340,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -7341,7 +7348,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -7349,7 +7356,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -7357,7 +7364,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -7373,7 +7380,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -7381,7 +7388,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -7389,7 +7396,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -7397,7 +7404,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -7405,7 +7412,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -7413,7 +7420,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -7429,7 +7436,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -7437,7 +7444,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -7445,7 +7452,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -7461,7 +7468,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -7469,7 +7476,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -7477,7 +7484,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -7517,7 +7524,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -7525,7 +7532,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -7533,7 +7540,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>226</v>
       </c>
@@ -7541,7 +7548,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>228</v>
       </c>
@@ -7549,7 +7556,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -7557,7 +7564,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -7565,7 +7572,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>234</v>
       </c>
@@ -7573,7 +7580,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>236</v>
       </c>
@@ -7581,7 +7588,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>238</v>
       </c>
@@ -7589,7 +7596,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -7661,7 +7668,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -7669,7 +7676,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -7677,7 +7684,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -7685,7 +7692,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -7693,7 +7700,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -7701,7 +7708,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -7709,7 +7716,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -7717,7 +7724,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -7725,7 +7732,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -7733,7 +7740,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -7741,7 +7748,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -7749,7 +7756,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -7757,7 +7764,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -7765,7 +7772,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -7773,7 +7780,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -7781,7 +7788,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -7789,7 +7796,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -7797,7 +7804,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -7805,7 +7812,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -7813,7 +7820,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -7821,7 +7828,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -7829,7 +7836,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -7837,7 +7844,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -7845,7 +7852,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -7853,7 +7860,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -7861,7 +7868,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -7869,7 +7876,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -7877,7 +7884,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>312</v>
       </c>
@@ -7885,7 +7892,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>314</v>
       </c>
@@ -7893,7 +7900,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -7901,7 +7908,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>318</v>
       </c>
@@ -7909,7 +7916,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -7917,7 +7924,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -7925,7 +7932,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -7933,7 +7940,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>326</v>
       </c>
@@ -7941,7 +7948,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>328</v>
       </c>
@@ -7949,7 +7956,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>330</v>
       </c>
@@ -7957,7 +7964,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -7965,7 +7972,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -7973,7 +7980,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -7981,7 +7988,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -7989,7 +7996,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -7997,7 +8004,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -8005,7 +8012,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>344</v>
       </c>
@@ -8013,7 +8020,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>346</v>
       </c>
@@ -8021,7 +8028,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -8037,7 +8044,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -8045,7 +8052,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -8053,7 +8060,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -8061,7 +8068,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -8069,7 +8076,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>360</v>
       </c>
@@ -8077,7 +8084,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>362</v>
       </c>
@@ -8085,7 +8092,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -8093,7 +8100,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -8101,7 +8108,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>368</v>
       </c>
@@ -8109,7 +8116,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -8117,7 +8124,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -8125,7 +8132,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>374</v>
       </c>
@@ -8133,7 +8140,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -8261,7 +8268,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -8269,7 +8276,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -8277,7 +8284,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -8285,7 +8292,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -8293,7 +8300,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -8301,7 +8308,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -8309,7 +8316,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -8317,7 +8324,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -8325,7 +8332,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -8333,7 +8340,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -8341,7 +8348,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -8349,7 +8356,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -8357,7 +8364,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -8365,7 +8372,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -8373,7 +8380,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -8381,7 +8388,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -8389,7 +8396,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -8397,7 +8404,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -8405,7 +8412,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>444</v>
       </c>
@@ -8501,7 +8508,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>468</v>
       </c>
@@ -8509,7 +8516,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -8517,7 +8524,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>472</v>
       </c>
@@ -8525,7 +8532,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>474</v>
       </c>
@@ -8533,7 +8540,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>476</v>
       </c>
@@ -8541,7 +8548,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>478</v>
       </c>
@@ -8549,7 +8556,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>480</v>
       </c>
@@ -8557,7 +8564,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -8565,7 +8572,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -8573,7 +8580,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>486</v>
       </c>
@@ -8581,7 +8588,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -8589,7 +8596,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -8597,7 +8604,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -8621,7 +8628,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>498</v>
       </c>
@@ -8629,7 +8636,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>500</v>
       </c>
@@ -8637,7 +8644,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -8645,7 +8652,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -8653,7 +8660,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>506</v>
       </c>
@@ -8661,7 +8668,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>508</v>
       </c>
@@ -8669,7 +8676,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>510</v>
       </c>
@@ -8693,7 +8700,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>516</v>
       </c>
@@ -8701,7 +8708,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>518</v>
       </c>
@@ -8709,7 +8716,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>520</v>
       </c>
@@ -8717,7 +8724,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>522</v>
       </c>
@@ -8725,7 +8732,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>524</v>
       </c>
@@ -8877,7 +8884,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>562</v>
       </c>
@@ -8885,7 +8892,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>564</v>
       </c>
@@ -8957,7 +8964,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -8965,7 +8972,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -8973,7 +8980,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -9069,7 +9076,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>610</v>
       </c>
@@ -9077,7 +9084,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>612</v>
       </c>
@@ -9085,7 +9092,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -9093,7 +9100,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -9101,7 +9108,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>618</v>
       </c>
@@ -9109,7 +9116,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>620</v>
       </c>
@@ -9125,7 +9132,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>624</v>
       </c>
@@ -9133,7 +9140,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>626</v>
       </c>
@@ -9149,7 +9156,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>630</v>
       </c>
@@ -9157,7 +9164,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>632</v>
       </c>
@@ -9173,7 +9180,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>636</v>
       </c>
@@ -9181,7 +9188,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>638</v>
       </c>
@@ -9189,7 +9196,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>640</v>
       </c>
@@ -9197,7 +9204,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>642</v>
       </c>
@@ -9205,7 +9212,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>644</v>
       </c>
@@ -9213,7 +9220,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>646</v>
       </c>
@@ -9317,7 +9324,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>672</v>
       </c>
@@ -9325,7 +9332,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>674</v>
       </c>
@@ -9333,7 +9340,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>676</v>
       </c>
@@ -9437,7 +9444,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>701</v>
       </c>
@@ -9445,7 +9452,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>703</v>
       </c>
@@ -9453,7 +9460,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>705</v>
       </c>
@@ -9461,7 +9468,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>707</v>
       </c>
@@ -9469,7 +9476,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>709</v>
       </c>
@@ -9477,7 +9484,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>711</v>
       </c>
@@ -9485,7 +9492,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>713</v>
       </c>
@@ -9493,7 +9500,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>715</v>
       </c>
@@ -9501,7 +9508,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>717</v>
       </c>
@@ -9509,7 +9516,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>719</v>
       </c>
@@ -9517,7 +9524,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>721</v>
       </c>
@@ -9525,7 +9532,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>723</v>
       </c>
@@ -9533,7 +9540,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>725</v>
       </c>
@@ -9541,7 +9548,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>727</v>
       </c>
@@ -9549,7 +9556,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>729</v>
       </c>
@@ -9573,7 +9580,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>735</v>
       </c>
@@ -9581,7 +9588,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>737</v>
       </c>
@@ -9589,7 +9596,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>739</v>
       </c>
@@ -9597,7 +9604,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>741</v>
       </c>
@@ -9605,7 +9612,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>743</v>
       </c>
@@ -9613,7 +9620,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>745</v>
       </c>
@@ -9621,7 +9628,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>747</v>
       </c>
@@ -9629,7 +9636,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>749</v>
       </c>
@@ -9637,7 +9644,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>751</v>
       </c>
@@ -9645,7 +9652,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>753</v>
       </c>
@@ -9653,7 +9660,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>755</v>
       </c>
@@ -9669,7 +9676,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>759</v>
       </c>
@@ -9677,7 +9684,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>761</v>
       </c>
@@ -9693,7 +9700,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>765</v>
       </c>
@@ -9701,7 +9708,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>767</v>
       </c>
@@ -9709,7 +9716,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>769</v>
       </c>
@@ -9725,7 +9732,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>773</v>
       </c>
@@ -9733,7 +9740,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>775</v>
       </c>
@@ -9741,7 +9748,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>777</v>
       </c>
@@ -9749,7 +9756,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>779</v>
       </c>
@@ -9757,7 +9764,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>781</v>
       </c>
@@ -9765,7 +9772,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>783</v>
       </c>
@@ -9773,7 +9780,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>785</v>
       </c>
@@ -9781,7 +9788,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>787</v>
       </c>
@@ -9797,7 +9804,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>791</v>
       </c>
@@ -9805,7 +9812,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>793</v>
       </c>
@@ -9813,7 +9820,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>795</v>
       </c>
@@ -9821,7 +9828,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>797</v>
       </c>
@@ -9829,7 +9836,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>799</v>
       </c>
@@ -9837,7 +9844,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>801</v>
       </c>
@@ -9845,7 +9852,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>803</v>
       </c>
@@ -9853,7 +9860,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>805</v>
       </c>
@@ -9861,7 +9868,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>807</v>
       </c>
@@ -9869,7 +9876,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>809</v>
       </c>
@@ -9893,7 +9900,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>815</v>
       </c>
@@ -9909,7 +9916,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>819</v>
       </c>
@@ -9917,7 +9924,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>821</v>
       </c>
@@ -9925,7 +9932,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>823</v>
       </c>
@@ -9933,7 +9940,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>825</v>
       </c>
@@ -9941,7 +9948,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>827</v>
       </c>
@@ -9949,7 +9956,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>829</v>
       </c>
@@ -9957,7 +9964,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>831</v>
       </c>
@@ -9965,7 +9972,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>833</v>
       </c>
@@ -9973,7 +9980,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>835</v>
       </c>
@@ -9981,7 +9988,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>837</v>
       </c>
@@ -9989,7 +9996,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>839</v>
       </c>
@@ -9997,7 +10004,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>841</v>
       </c>
@@ -10005,7 +10012,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>843</v>
       </c>
@@ -10013,7 +10020,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>845</v>
       </c>
@@ -10021,7 +10028,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>847</v>
       </c>
@@ -10029,7 +10036,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>849</v>
       </c>
@@ -10037,7 +10044,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>851</v>
       </c>
@@ -10045,7 +10052,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>853</v>
       </c>
@@ -10053,7 +10060,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>855</v>
       </c>
@@ -10061,7 +10068,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>857</v>
       </c>
@@ -10069,7 +10076,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>859</v>
       </c>
@@ -10077,7 +10084,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>861</v>
       </c>
@@ -10085,7 +10092,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>863</v>
       </c>
@@ -10101,7 +10108,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>867</v>
       </c>
@@ -10109,7 +10116,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>869</v>
       </c>
@@ -10117,7 +10124,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>871</v>
       </c>
@@ -10125,7 +10132,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>873</v>
       </c>
@@ -10133,7 +10140,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>875</v>
       </c>
@@ -10141,7 +10148,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>877</v>
       </c>
@@ -10149,7 +10156,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>879</v>
       </c>
@@ -10157,7 +10164,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>881</v>
       </c>
@@ -10165,7 +10172,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>883</v>
       </c>
@@ -10173,7 +10180,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>885</v>
       </c>
@@ -10181,7 +10188,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>887</v>
       </c>
@@ -10189,7 +10196,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>888</v>
       </c>
@@ -10197,7 +10204,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>889</v>
       </c>
@@ -10205,7 +10212,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>891</v>
       </c>
@@ -10213,7 +10220,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>893</v>
       </c>
@@ -10221,7 +10228,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>895</v>
       </c>
@@ -10229,7 +10236,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>897</v>
       </c>
@@ -10237,7 +10244,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>899</v>
       </c>
@@ -10245,7 +10252,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>901</v>
       </c>
@@ -10253,7 +10260,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>903</v>
       </c>
@@ -10261,7 +10268,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>905</v>
       </c>
@@ -10269,7 +10276,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>907</v>
       </c>
@@ -10277,7 +10284,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>909</v>
       </c>
@@ -10309,7 +10316,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>917</v>
       </c>
@@ -10317,7 +10324,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>919</v>
       </c>
@@ -10325,7 +10332,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>921</v>
       </c>
@@ -10333,7 +10340,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>923</v>
       </c>
@@ -10341,7 +10348,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>925</v>
       </c>
@@ -10349,7 +10356,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>927</v>
       </c>
@@ -10357,7 +10364,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>929</v>
       </c>
@@ -10365,7 +10372,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>931</v>
       </c>
@@ -10373,7 +10380,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>933</v>
       </c>
@@ -10381,7 +10388,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>935</v>
       </c>
@@ -10389,7 +10396,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>937</v>
       </c>
@@ -10397,7 +10404,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>939</v>
       </c>
@@ -10405,7 +10412,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>941</v>
       </c>
@@ -10413,7 +10420,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>943</v>
       </c>
@@ -10421,7 +10428,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>945</v>
       </c>
@@ -10429,7 +10436,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>947</v>
       </c>
@@ -10661,7 +10668,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>1004</v>
       </c>
@@ -10669,7 +10676,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>1006</v>
       </c>
@@ -10677,7 +10684,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>1008</v>
       </c>
@@ -10685,7 +10692,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>1010</v>
       </c>
@@ -10693,7 +10700,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>1012</v>
       </c>
@@ -10701,7 +10708,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>1014</v>
       </c>
@@ -10709,7 +10716,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>1016</v>
       </c>
@@ -10717,7 +10724,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>1018</v>
       </c>
@@ -10725,7 +10732,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>1020</v>
       </c>
@@ -10733,7 +10740,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>1022</v>
       </c>
@@ -10741,7 +10748,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>1024</v>
       </c>
@@ -10749,7 +10756,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>1026</v>
       </c>
@@ -10757,7 +10764,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>1028</v>
       </c>
@@ -10765,7 +10772,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>1030</v>
       </c>
@@ -10773,7 +10780,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>1032</v>
       </c>
@@ -10781,7 +10788,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>1034</v>
       </c>
@@ -10797,7 +10804,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>1038</v>
       </c>
@@ -10805,7 +10812,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>1040</v>
       </c>
@@ -10813,7 +10820,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>1042</v>
       </c>
@@ -10821,7 +10828,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>1044</v>
       </c>
@@ -10829,7 +10836,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>1046</v>
       </c>
@@ -10837,7 +10844,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>1048</v>
       </c>
@@ -10845,7 +10852,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>1050</v>
       </c>
@@ -10853,7 +10860,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>1052</v>
       </c>
@@ -10861,7 +10868,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>1054</v>
       </c>
@@ -10869,7 +10876,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>1056</v>
       </c>
@@ -10877,7 +10884,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>1058</v>
       </c>
@@ -10885,7 +10892,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>1060</v>
       </c>
@@ -10941,7 +10948,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>1074</v>
       </c>
@@ -10949,7 +10956,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>1076</v>
       </c>
@@ -10957,7 +10964,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>1078</v>
       </c>
@@ -10965,7 +10972,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>1080</v>
       </c>
@@ -10973,7 +10980,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>1082</v>
       </c>
@@ -10981,7 +10988,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>1084</v>
       </c>
@@ -10989,7 +10996,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>1086</v>
       </c>
@@ -10997,7 +11004,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>1088</v>
       </c>
@@ -11005,7 +11012,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>1090</v>
       </c>
@@ -11013,7 +11020,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>1092</v>
       </c>
@@ -11021,7 +11028,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>1094</v>
       </c>
@@ -11029,7 +11036,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>1096</v>
       </c>
@@ -11037,7 +11044,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>1098</v>
       </c>
@@ -11045,7 +11052,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>1100</v>
       </c>
@@ -11053,7 +11060,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>1102</v>
       </c>
@@ -11061,7 +11068,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>1104</v>
       </c>
@@ -11069,7 +11076,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>1106</v>
       </c>
@@ -11077,7 +11084,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>1108</v>
       </c>
@@ -11085,7 +11092,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>1110</v>
       </c>
@@ -11093,7 +11100,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>1112</v>
       </c>
@@ -11101,7 +11108,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>1114</v>
       </c>
@@ -11141,7 +11148,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>1124</v>
       </c>
@@ -11149,7 +11156,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>1126</v>
       </c>
@@ -11157,7 +11164,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>1128</v>
       </c>
@@ -11165,7 +11172,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>1130</v>
       </c>
@@ -11181,7 +11188,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>1134</v>
       </c>
@@ -11189,7 +11196,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>1136</v>
       </c>
@@ -11197,7 +11204,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>1138</v>
       </c>
@@ -11205,7 +11212,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>1140</v>
       </c>
@@ -11213,7 +11220,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>1142</v>
       </c>
@@ -11221,7 +11228,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>1144</v>
       </c>
@@ -11229,7 +11236,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>1146</v>
       </c>
@@ -11237,7 +11244,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>1148</v>
       </c>
@@ -11245,7 +11252,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>1150</v>
       </c>
@@ -11253,7 +11260,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>1152</v>
       </c>
@@ -11261,7 +11268,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>1154</v>
       </c>
@@ -11269,7 +11276,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>1156</v>
       </c>
@@ -11277,7 +11284,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>1158</v>
       </c>
@@ -11285,7 +11292,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>1160</v>
       </c>
@@ -11293,7 +11300,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>1162</v>
       </c>
@@ -11301,7 +11308,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>1164</v>
       </c>
@@ -11333,7 +11340,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>1172</v>
       </c>
@@ -11341,7 +11348,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>1174</v>
       </c>
@@ -11349,7 +11356,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>1176</v>
       </c>
@@ -11357,7 +11364,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>1178</v>
       </c>
@@ -11365,7 +11372,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>1180</v>
       </c>
@@ -11381,7 +11388,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>1184</v>
       </c>
@@ -11389,7 +11396,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>1186</v>
       </c>
@@ -11397,7 +11404,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>1188</v>
       </c>
@@ -11405,7 +11412,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>1190</v>
       </c>
@@ -11413,7 +11420,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>1192</v>
       </c>
@@ -11421,7 +11428,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>1194</v>
       </c>
@@ -11429,7 +11436,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>1196</v>
       </c>
@@ -11437,7 +11444,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>1198</v>
       </c>
@@ -11445,7 +11452,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>1200</v>
       </c>
@@ -11453,7 +11460,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>1202</v>
       </c>
@@ -11461,7 +11468,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>1204</v>
       </c>
@@ -11469,7 +11476,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>1206</v>
       </c>
@@ -11477,7 +11484,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>1208</v>
       </c>
@@ -11485,7 +11492,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>1210</v>
       </c>
@@ -11493,7 +11500,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>1212</v>
       </c>
@@ -11501,7 +11508,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>1214</v>
       </c>
@@ -11509,7 +11516,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>1216</v>
       </c>
@@ -11517,7 +11524,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>1218</v>
       </c>
@@ -11525,7 +11532,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>1220</v>
       </c>
@@ -11533,7 +11540,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>1222</v>
       </c>
@@ -11541,7 +11548,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>1224</v>
       </c>
@@ -11549,7 +11556,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>1226</v>
       </c>
@@ -11557,7 +11564,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>1228</v>
       </c>
@@ -11565,7 +11572,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>1230</v>
       </c>
@@ -11589,7 +11596,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>1236</v>
       </c>
@@ -11597,7 +11604,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>1238</v>
       </c>
@@ -11605,7 +11612,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>1240</v>
       </c>
@@ -11613,7 +11620,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>1242</v>
       </c>
@@ -11621,7 +11628,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>1244</v>
       </c>
@@ -11629,7 +11636,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>1246</v>
       </c>
@@ -11645,7 +11652,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>1250</v>
       </c>
@@ -11653,7 +11660,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>1252</v>
       </c>
@@ -11661,7 +11668,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>1254</v>
       </c>
@@ -11725,7 +11732,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>1270</v>
       </c>
@@ -11733,7 +11740,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>1272</v>
       </c>
@@ -11741,7 +11748,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>1274</v>
       </c>
@@ -11749,7 +11756,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>1276</v>
       </c>
@@ -11757,7 +11764,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>1278</v>
       </c>
@@ -11765,7 +11772,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>1280</v>
       </c>
@@ -11789,7 +11796,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>1286</v>
       </c>
@@ -11797,7 +11804,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>1288</v>
       </c>
@@ -11805,7 +11812,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>1290</v>
       </c>
@@ -11813,7 +11820,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>1292</v>
       </c>
@@ -11821,7 +11828,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>1294</v>
       </c>
@@ -11829,7 +11836,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>1296</v>
       </c>
@@ -11837,7 +11844,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>1298</v>
       </c>
@@ -11845,7 +11852,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>1300</v>
       </c>
@@ -11853,7 +11860,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>1302</v>
       </c>
@@ -11861,7 +11868,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="656" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>1304</v>
       </c>
@@ -11869,7 +11876,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="657" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>1306</v>
       </c>
@@ -11877,7 +11884,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="658" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>1308</v>
       </c>
@@ -11885,7 +11892,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="659" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>1310</v>
       </c>
@@ -11893,7 +11900,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="660" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>1312</v>
       </c>
@@ -11901,7 +11908,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="661" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>1314</v>
       </c>
@@ -11909,7 +11916,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="662" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>1316</v>
       </c>
@@ -11917,7 +11924,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="663" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>1318</v>
       </c>
@@ -11925,7 +11932,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="664" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>1320</v>
       </c>
@@ -11933,7 +11940,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="665" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>1322</v>
       </c>
@@ -11941,7 +11948,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="666" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>1324</v>
       </c>
@@ -11949,7 +11956,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="667" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>1326</v>
       </c>
@@ -11957,7 +11964,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="668" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>1328</v>
       </c>
@@ -11965,7 +11972,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="669" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>1330</v>
       </c>
@@ -11973,7 +11980,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="670" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>1332</v>
       </c>
@@ -11981,7 +11988,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="671" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>1334</v>
       </c>
@@ -11989,7 +11996,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="672" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>1336</v>
       </c>
@@ -11997,7 +12004,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>1338</v>
       </c>
@@ -12005,7 +12012,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>1340</v>
       </c>
@@ -12013,7 +12020,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>1342</v>
       </c>
@@ -12021,7 +12028,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="676" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>1344</v>
       </c>
@@ -12029,7 +12036,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>1346</v>
       </c>
@@ -12037,7 +12044,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>1348</v>
       </c>
@@ -12045,7 +12052,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>1350</v>
       </c>
@@ -12053,7 +12060,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>1352</v>
       </c>
@@ -12061,7 +12068,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>1354</v>
       </c>
@@ -12069,7 +12076,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="682" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>1356</v>
       </c>
@@ -12077,7 +12084,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="683" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>1358</v>
       </c>
@@ -12085,7 +12092,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="684" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>1360</v>
       </c>
@@ -12093,7 +12100,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="685" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>1362</v>
       </c>
@@ -12101,7 +12108,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="686" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>1364</v>
       </c>
@@ -12109,7 +12116,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="687" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>1366</v>
       </c>
@@ -12117,7 +12124,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="688" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>1368</v>
       </c>
@@ -12125,7 +12132,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="689" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>1370</v>
       </c>
@@ -12133,7 +12140,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="690" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>1372</v>
       </c>
@@ -12141,7 +12148,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="691" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>1374</v>
       </c>
@@ -12149,7 +12156,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="692" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>1376</v>
       </c>
@@ -12157,7 +12164,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="693" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>1378</v>
       </c>
@@ -12165,7 +12172,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="694" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>1380</v>
       </c>
@@ -12173,7 +12180,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="695" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>1382</v>
       </c>
@@ -12181,7 +12188,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="696" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>1384</v>
       </c>
@@ -12189,7 +12196,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="697" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>1386</v>
       </c>
@@ -12197,7 +12204,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="698" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>1388</v>
       </c>
@@ -12205,7 +12212,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="699" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>1390</v>
       </c>
@@ -12213,7 +12220,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="700" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>1392</v>
       </c>
@@ -12221,7 +12228,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="701" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>1394</v>
       </c>
@@ -12229,7 +12236,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="702" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>1396</v>
       </c>
@@ -12237,7 +12244,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="703" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>1398</v>
       </c>
@@ -12245,7 +12252,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="704" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>1400</v>
       </c>
@@ -12253,7 +12260,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="705" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>1402</v>
       </c>
@@ -12261,7 +12268,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="706" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>1404</v>
       </c>
@@ -12269,7 +12276,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="707" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>1406</v>
       </c>
@@ -12277,7 +12284,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="708" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>1408</v>
       </c>
@@ -12285,7 +12292,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="709" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>1410</v>
       </c>
@@ -12293,7 +12300,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="710" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>1412</v>
       </c>
@@ -12301,7 +12308,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="711" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>1414</v>
       </c>
@@ -12309,7 +12316,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="712" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>1416</v>
       </c>
@@ -12317,7 +12324,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="713" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>1417</v>
       </c>
@@ -12325,7 +12332,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="714" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>1419</v>
       </c>
@@ -12333,7 +12340,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="715" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>1421</v>
       </c>
@@ -12341,7 +12348,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="716" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>1423</v>
       </c>
@@ -12349,7 +12356,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="717" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>1425</v>
       </c>
@@ -12357,7 +12364,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="718" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>1427</v>
       </c>
@@ -12365,7 +12372,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="719" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>1428</v>
       </c>
@@ -12373,7 +12380,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="720" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>1430</v>
       </c>
@@ -12381,7 +12388,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="721" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>1432</v>
       </c>
@@ -12389,7 +12396,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>1434</v>
       </c>
@@ -12397,7 +12404,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="723" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>1436</v>
       </c>
@@ -12405,7 +12412,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>1438</v>
       </c>
@@ -12413,7 +12420,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>1440</v>
       </c>
@@ -12421,7 +12428,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>1442</v>
       </c>
@@ -12437,7 +12444,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>1446</v>
       </c>
@@ -12445,7 +12452,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
         <v>1448</v>
       </c>
@@ -12453,7 +12460,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>1450</v>
       </c>
@@ -12461,7 +12468,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>1452</v>
       </c>
@@ -12469,7 +12476,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>1454</v>
       </c>
@@ -12477,7 +12484,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
         <v>1456</v>
       </c>
@@ -12485,7 +12492,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>1458</v>
       </c>
@@ -12493,7 +12500,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>1460</v>
       </c>
@@ -12501,7 +12508,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
         <v>1462</v>
       </c>
@@ -12509,7 +12516,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
         <v>1463</v>
       </c>
@@ -12517,7 +12524,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
         <v>1465</v>
       </c>
@@ -12525,7 +12532,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
         <v>1467</v>
       </c>
@@ -12533,7 +12540,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
         <v>1469</v>
       </c>
@@ -12541,7 +12548,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
         <v>1471</v>
       </c>
@@ -12549,7 +12556,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
         <v>1473</v>
       </c>
@@ -12557,7 +12564,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="743" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
         <v>1475</v>
       </c>
@@ -12565,7 +12572,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
         <v>1477</v>
       </c>
@@ -12573,7 +12580,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
         <v>1479</v>
       </c>
@@ -12581,7 +12588,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>1481</v>
       </c>
@@ -12589,7 +12596,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="747" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>1483</v>
       </c>
@@ -12597,7 +12604,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
         <v>1485</v>
       </c>
@@ -12605,7 +12612,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
         <v>1487</v>
       </c>
@@ -12613,7 +12620,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>1489</v>
       </c>
@@ -12621,7 +12628,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>1491</v>
       </c>
@@ -12629,7 +12636,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
         <v>1493</v>
       </c>
@@ -12637,7 +12644,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>1495</v>
       </c>
@@ -12645,7 +12652,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
         <v>1497</v>
       </c>
@@ -12653,7 +12660,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="755" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
         <v>1499</v>
       </c>
@@ -12661,7 +12668,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="756" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
         <v>1501</v>
       </c>
@@ -12669,7 +12676,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="757" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
         <v>1503</v>
       </c>
@@ -12717,7 +12724,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="763" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
         <v>1515</v>
       </c>
@@ -12725,7 +12732,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="764" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
         <v>1517</v>
       </c>
@@ -12797,7 +12804,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="773" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
         <v>1535</v>
       </c>
@@ -12805,7 +12812,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="774" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
         <v>1537</v>
       </c>
@@ -12813,7 +12820,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="775" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
         <v>1539</v>
       </c>
@@ -12821,7 +12828,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="776" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
         <v>1541</v>
       </c>
@@ -12829,7 +12836,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="777" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
         <v>1543</v>
       </c>
@@ -12837,7 +12844,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="778" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
         <v>1545</v>
       </c>
@@ -12845,7 +12852,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="779" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
         <v>1547</v>
       </c>
@@ -12853,7 +12860,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="780" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
         <v>1549</v>
       </c>
@@ -12861,7 +12868,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="781" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
         <v>1551</v>
       </c>
@@ -12869,7 +12876,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="782" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
         <v>1553</v>
       </c>
@@ -12877,7 +12884,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="783" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
         <v>1555</v>
       </c>
@@ -12885,7 +12892,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="784" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
         <v>1557</v>
       </c>
@@ -12893,7 +12900,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="785" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
         <v>1559</v>
       </c>
@@ -12901,7 +12908,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="786" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
         <v>1561</v>
       </c>
@@ -12909,7 +12916,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="787" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
         <v>1563</v>
       </c>
@@ -12917,7 +12924,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="788" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
         <v>1565</v>
       </c>
@@ -12925,7 +12932,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="789" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A789" t="s">
         <v>1567</v>
       </c>
@@ -12933,7 +12940,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="790" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
         <v>1569</v>
       </c>
@@ -12941,7 +12948,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="791" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
         <v>1571</v>
       </c>
@@ -12949,7 +12956,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="792" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
         <v>1573</v>
       </c>
@@ -12957,7 +12964,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="793" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
         <v>1575</v>
       </c>
@@ -12965,7 +12972,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="794" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
         <v>1577</v>
       </c>
@@ -12973,7 +12980,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="795" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
         <v>1579</v>
       </c>
@@ -12981,7 +12988,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="796" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
         <v>1581</v>
       </c>
@@ -12989,7 +12996,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="797" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
         <v>1583</v>
       </c>
@@ -12997,7 +13004,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="798" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
         <v>1585</v>
       </c>
@@ -13005,7 +13012,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="799" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
         <v>1587</v>
       </c>
@@ -13013,7 +13020,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="800" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
         <v>1589</v>
       </c>
@@ -13021,7 +13028,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="801" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
         <v>1591</v>
       </c>
@@ -13029,7 +13036,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="802" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
         <v>1593</v>
       </c>
@@ -13037,7 +13044,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="803" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
         <v>1595</v>
       </c>
@@ -13045,7 +13052,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="804" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
         <v>1597</v>
       </c>
@@ -13053,7 +13060,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="805" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
         <v>1599</v>
       </c>
@@ -13061,7 +13068,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="806" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
         <v>1601</v>
       </c>
@@ -13069,7 +13076,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="807" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
         <v>1603</v>
       </c>
@@ -13077,7 +13084,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="808" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
         <v>1605</v>
       </c>
@@ -13085,7 +13092,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="809" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
         <v>1607</v>
       </c>
@@ -13093,7 +13100,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="810" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
         <v>1609</v>
       </c>
@@ -13101,7 +13108,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="811" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
         <v>1611</v>
       </c>
@@ -13109,7 +13116,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="812" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
         <v>1613</v>
       </c>
@@ -13117,7 +13124,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="813" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
         <v>1615</v>
       </c>
@@ -13125,7 +13132,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="814" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
         <v>1617</v>
       </c>
@@ -13133,7 +13140,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="815" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
         <v>1619</v>
       </c>
@@ -13141,7 +13148,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="816" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
         <v>1621</v>
       </c>
@@ -13149,7 +13156,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="817" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
         <v>1623</v>
       </c>
@@ -13157,7 +13164,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="818" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
         <v>1625</v>
       </c>
@@ -13165,7 +13172,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="819" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
         <v>1627</v>
       </c>
@@ -13205,7 +13212,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="824" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
         <v>1637</v>
       </c>
@@ -13213,7 +13220,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="825" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
         <v>1639</v>
       </c>
@@ -13221,7 +13228,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="826" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
         <v>1641</v>
       </c>
@@ -13229,7 +13236,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="827" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
         <v>1643</v>
       </c>
@@ -13253,7 +13260,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="830" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
         <v>1649</v>
       </c>
@@ -13261,7 +13268,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="831" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
         <v>1651</v>
       </c>
@@ -13269,7 +13276,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="832" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A832" t="s">
         <v>1653</v>
       </c>
@@ -13317,7 +13324,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="838" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A838" t="s">
         <v>1665</v>
       </c>
@@ -13325,7 +13332,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="839" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A839" t="s">
         <v>1667</v>
       </c>
@@ -13333,7 +13340,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="840" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A840" t="s">
         <v>1669</v>
       </c>
@@ -13341,7 +13348,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="841" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A841" t="s">
         <v>1670</v>
       </c>
@@ -13349,7 +13356,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="842" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A842" t="s">
         <v>1672</v>
       </c>
@@ -13485,7 +13492,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="859" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A859" t="s">
         <v>1706</v>
       </c>
@@ -13493,7 +13500,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="860" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A860" t="s">
         <v>1708</v>
       </c>
@@ -13501,7 +13508,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="861" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A861" t="s">
         <v>1710</v>
       </c>
@@ -13509,7 +13516,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="862" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A862" t="s">
         <v>1712</v>
       </c>
@@ -13581,7 +13588,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="871" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A871" t="s">
         <v>1730</v>
       </c>
@@ -13589,7 +13596,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="872" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A872" t="s">
         <v>1732</v>
       </c>
@@ -13597,7 +13604,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="873" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A873" t="s">
         <v>1734</v>
       </c>
@@ -13605,7 +13612,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="874" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A874" t="s">
         <v>1736</v>
       </c>
@@ -13613,7 +13620,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="875" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A875" t="s">
         <v>1738</v>
       </c>
@@ -13621,7 +13628,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="876" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A876" t="s">
         <v>1740</v>
       </c>
@@ -13629,7 +13636,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="877" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A877" t="s">
         <v>1742</v>
       </c>
@@ -13637,7 +13644,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="878" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A878" t="s">
         <v>1744</v>
       </c>
@@ -13645,7 +13652,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="879" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A879" t="s">
         <v>1746</v>
       </c>
@@ -13653,7 +13660,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="880" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A880" t="s">
         <v>1748</v>
       </c>
@@ -13661,7 +13668,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="881" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A881" t="s">
         <v>1750</v>
       </c>
@@ -13669,7 +13676,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="882" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A882" t="s">
         <v>1752</v>
       </c>
@@ -13677,7 +13684,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="883" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A883" t="s">
         <v>1754</v>
       </c>
@@ -13685,7 +13692,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="884" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A884" t="s">
         <v>1756</v>
       </c>
@@ -13693,7 +13700,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="885" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A885" t="s">
         <v>1758</v>
       </c>
@@ -13701,7 +13708,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="886" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A886" t="s">
         <v>1760</v>
       </c>
@@ -13709,7 +13716,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="887" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A887" t="s">
         <v>1762</v>
       </c>
@@ -13717,7 +13724,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="888" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A888" t="s">
         <v>1764</v>
       </c>
@@ -13725,7 +13732,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="889" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A889" t="s">
         <v>1766</v>
       </c>
@@ -13733,7 +13740,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="890" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A890" t="s">
         <v>1768</v>
       </c>
@@ -13741,7 +13748,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="891" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A891" t="s">
         <v>1770</v>
       </c>
@@ -13749,7 +13756,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="892" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A892" t="s">
         <v>1772</v>
       </c>
@@ -13757,7 +13764,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="893" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A893" t="s">
         <v>1774</v>
       </c>
@@ -13773,7 +13780,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="895" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A895" t="s">
         <v>1778</v>
       </c>
@@ -13877,7 +13884,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="908" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A908" t="s">
         <v>1804</v>
       </c>
@@ -13885,7 +13892,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="909" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A909" t="s">
         <v>1806</v>
       </c>
@@ -13893,7 +13900,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="910" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A910" t="s">
         <v>1808</v>
       </c>
@@ -13901,7 +13908,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="911" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A911" t="s">
         <v>1810</v>
       </c>
@@ -13909,7 +13916,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="912" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A912" t="s">
         <v>1812</v>
       </c>
@@ -13917,7 +13924,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="913" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A913" t="s">
         <v>1814</v>
       </c>
@@ -13925,7 +13932,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="914" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A914" t="s">
         <v>1816</v>
       </c>
@@ -13933,7 +13940,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="915" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A915" t="s">
         <v>1818</v>
       </c>
@@ -13941,7 +13948,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="916" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A916" t="s">
         <v>1820</v>
       </c>
@@ -13949,7 +13956,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="917" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A917" t="s">
         <v>1822</v>
       </c>
@@ -13957,7 +13964,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="918" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A918" t="s">
         <v>1824</v>
       </c>
@@ -13965,7 +13972,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="919" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A919" t="s">
         <v>1826</v>
       </c>
@@ -13973,7 +13980,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="920" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A920" t="s">
         <v>1828</v>
       </c>
@@ -13981,7 +13988,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="921" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A921" t="s">
         <v>1830</v>
       </c>
@@ -13989,7 +13996,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="922" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A922" t="s">
         <v>1832</v>
       </c>
@@ -13997,7 +14004,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="923" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A923" t="s">
         <v>1834</v>
       </c>
@@ -14005,7 +14012,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="924" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A924" t="s">
         <v>1836</v>
       </c>
@@ -14013,7 +14020,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="925" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A925" t="s">
         <v>1838</v>
       </c>
@@ -14021,7 +14028,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="926" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A926" t="s">
         <v>1840</v>
       </c>
@@ -14029,7 +14036,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="927" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A927" t="s">
         <v>1842</v>
       </c>
@@ -14037,7 +14044,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="928" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A928" t="s">
         <v>1844</v>
       </c>
@@ -14045,7 +14052,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="929" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A929" t="s">
         <v>1846</v>
       </c>
@@ -14053,7 +14060,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="930" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A930" t="s">
         <v>1848</v>
       </c>
@@ -14061,7 +14068,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="931" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A931" t="s">
         <v>1850</v>
       </c>
@@ -14069,7 +14076,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="932" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A932" t="s">
         <v>1852</v>
       </c>
@@ -14077,7 +14084,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="933" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A933" t="s">
         <v>1854</v>
       </c>
@@ -14085,7 +14092,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="934" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A934" t="s">
         <v>1856</v>
       </c>
@@ -14094,11 +14101,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B934" xr:uid="{91A1BD0F-AB80-42BF-ADD7-E5971A4A9B80}">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B934" xr:uid="{91A1BD0F-AB80-42BF-ADD7-E5971A4A9B80}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14108,14 +14111,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C237" sqref="C237"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="35.19921875" customWidth="1"/>
     <col min="4" max="4" width="16.53125" customWidth="1"/>
@@ -14127,7 +14130,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>1860</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -14155,8 +14158,8 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
@@ -14173,7 +14176,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>94</v>
       </c>
       <c r="B3" t="s">
@@ -14190,7 +14193,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>104</v>
       </c>
       <c r="B4" t="s">
@@ -14227,7 +14230,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>166</v>
       </c>
       <c r="B6" t="s">
@@ -14241,7 +14244,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>168</v>
       </c>
       <c r="B7" t="s">
@@ -14255,7 +14258,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>170</v>
       </c>
       <c r="B8" t="s">
@@ -14269,7 +14272,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>172</v>
       </c>
       <c r="B9" t="s">
@@ -14486,7 +14489,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>388</v>
       </c>
       <c r="B23" t="s">
@@ -14503,7 +14506,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
+      <c r="A24" t="s">
         <v>390</v>
       </c>
       <c r="B24" t="s">
@@ -14744,7 +14747,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="9" t="s">
+      <c r="A41" t="s">
         <v>464</v>
       </c>
       <c r="B41" t="s">
@@ -14761,7 +14764,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="9" t="s">
+      <c r="A42" t="s">
         <v>466</v>
       </c>
       <c r="B42" t="s">
@@ -14778,7 +14781,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="9" t="s">
+      <c r="A43" t="s">
         <v>660</v>
       </c>
       <c r="B43" t="s">
@@ -14820,7 +14823,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="57" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="9" t="s">
+      <c r="A46" t="s">
         <v>682</v>
       </c>
       <c r="B46" t="s">
@@ -14899,7 +14902,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="9" t="s">
+      <c r="A51" t="s">
         <v>691</v>
       </c>
       <c r="B51" t="s">
@@ -15154,7 +15157,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="9" t="s">
+      <c r="A69" t="s">
         <v>979</v>
       </c>
       <c r="B69" t="s">
@@ -15191,7 +15194,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="9" t="s">
+      <c r="A71" t="s">
         <v>983</v>
       </c>
       <c r="B71" t="s">
@@ -15430,7 +15433,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="9" t="s">
+      <c r="A87" t="s">
         <v>1629</v>
       </c>
       <c r="B87" t="s">
@@ -15450,7 +15453,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="9" t="s">
+      <c r="A88" t="s">
         <v>1631</v>
       </c>
       <c r="B88" t="s">
@@ -15498,7 +15501,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="9" t="s">
+      <c r="A91" t="s">
         <v>1655</v>
       </c>
       <c r="B91" t="s">
@@ -15655,7 +15658,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="9" t="s">
+      <c r="A102" t="s">
         <v>1694</v>
       </c>
       <c r="B102" t="s">
@@ -15686,7 +15689,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A104" s="9" t="s">
+      <c r="A104" t="s">
         <v>494</v>
       </c>
       <c r="B104" t="s">
@@ -15703,7 +15706,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A105" s="9" t="s">
+      <c r="A105" t="s">
         <v>496</v>
       </c>
       <c r="B105" t="s">
@@ -15986,7 +15989,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A125" s="9" t="s">
+      <c r="A125" t="s">
         <v>1166</v>
       </c>
       <c r="B125" t="s">
@@ -16000,7 +16003,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A126" s="9" t="s">
+      <c r="A126" t="s">
         <v>1168</v>
       </c>
       <c r="B126" t="s">
@@ -16027,8 +16030,8 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A128" s="9" t="s">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
         <v>1284</v>
       </c>
       <c r="B128" t="s">
@@ -16098,7 +16101,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="9" t="s">
+      <c r="A133" t="s">
         <v>1702</v>
       </c>
       <c r="B133" t="s">
@@ -16842,8 +16845,8 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A186" s="9" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
         <v>811</v>
       </c>
       <c r="B186" t="s">
@@ -16944,7 +16947,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A193" s="9" t="s">
+      <c r="A193" t="s">
         <v>1232</v>
       </c>
       <c r="B193" t="s">
@@ -16964,7 +16967,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A194" s="9" t="s">
+      <c r="A194" t="s">
         <v>1234</v>
       </c>
       <c r="B194" t="s">
@@ -17110,7 +17113,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A204" s="9" t="s">
+      <c r="A204" t="s">
         <v>1525</v>
       </c>
       <c r="B204" t="s">
@@ -17127,7 +17130,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A205" s="9" t="s">
+      <c r="A205" t="s">
         <v>1527</v>
       </c>
       <c r="B205" t="s">
@@ -17172,7 +17175,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A208" s="9" t="s">
+      <c r="A208" t="s">
         <v>1533</v>
       </c>
       <c r="B208" t="s">
@@ -17203,7 +17206,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A210" s="9" t="s">
+      <c r="A210" t="s">
         <v>1647</v>
       </c>
       <c r="B210" t="s">
@@ -17282,7 +17285,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A215" s="9" t="s">
+      <c r="A215" t="s">
         <v>1696</v>
       </c>
       <c r="B215" t="s">
@@ -17299,7 +17302,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A216" s="9" t="s">
+      <c r="A216" t="s">
         <v>1698</v>
       </c>
       <c r="B216" t="s">
@@ -17316,7 +17319,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A217" s="9" t="s">
+      <c r="A217" t="s">
         <v>1700</v>
       </c>
       <c r="B217" t="s">
@@ -17330,7 +17333,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A218" s="9" t="s">
+      <c r="A218" t="s">
         <v>1704</v>
       </c>
       <c r="B218" t="s">
@@ -17358,7 +17361,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A220" s="9" t="s">
+      <c r="A220" t="s">
         <v>1780</v>
       </c>
       <c r="B220" t="s">
@@ -17375,7 +17378,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A221" s="9" t="s">
+      <c r="A221" t="s">
         <v>1782</v>
       </c>
       <c r="B221" t="s">
@@ -17536,12 +17539,7 @@
     <filterColumn colId="5">
       <filters>
         <filter val="For Calculation"/>
-        <filter val="For model"/>
-        <filter val="For plot"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17580,6 +17578,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB7384-0845-4422-83E8-D074882A7517}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="50.73046875" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6ED024-D4D6-404C-8741-C034EFF30F4B}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -17808,7 +17847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77DE6C3-E8AA-4C13-A312-3D1EC168B796}">
   <dimension ref="A1:B28"/>
   <sheetViews>
@@ -18014,7 +18053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B17E8F-9228-4F03-B401-83ABEE385989}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -18100,7 +18139,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1976</v>
       </c>
@@ -18111,7 +18150,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="114" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1977</v>
       </c>
@@ -18122,7 +18161,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="114" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1978</v>
       </c>
@@ -18133,7 +18172,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1979</v>
       </c>
@@ -18161,7 +18200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F217FC-B1E1-44E6-9183-0B06A348252F}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -18231,7 +18270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547A82E9-E96A-4FE7-B9A4-5BA7699F2821}">
   <dimension ref="A1:E10"/>
   <sheetViews>

--- a/BINF620-R Projects/Final Project/NSCH_2022_Variable labels.xlsx
+++ b/BINF620-R Projects/Final Project/NSCH_2022_Variable labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manning's PC\Documents\ProgrammingProjects\binf620_assmith23\BINF620-R Projects\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204ACB00-BC37-468F-8CD1-E7C1624D6878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2582FB1-B3EF-4424-94DF-82815DD268CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{24CD0A18-0D74-4436-8BB0-CF90BAB9E784}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{24CD0A18-0D74-4436-8BB0-CF90BAB9E784}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Variables" sheetId="1" r:id="rId1"/>
@@ -14163,7 +14163,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
     </sheetView>
@@ -17655,8 +17655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB7384-0845-4422-83E8-D074882A7517}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17680,7 +17680,7 @@
       <c r="A2" t="s">
         <v>1989</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1986</v>
       </c>
       <c r="C2" t="s">
@@ -17688,6 +17688,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B01621B9-6081-42D7-95D0-D456886C063B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
